--- a/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
+++ b/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estad\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estad\Apps\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4269306-47AB-401D-8673-313F6A2AE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A71D3-C49D-4C37-8DAA-B007888D8BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
   </bookViews>
@@ -706,13 +706,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}" name="Tabla2" displayName="Tabla2" ref="A1:E80" totalsRowShown="0">
-  <autoFilter ref="A1:E80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DDCE4669-1A00-483B-B502-7071605F996F}" name="Cotizacion"/>
     <tableColumn id="2" xr3:uid="{874C8982-D100-4C2B-8A5A-43371F79261A}" name="Pedido"/>
@@ -725,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:E48" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:E48" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="A1:E48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}">
     <filterColumn colId="4">
       <customFilters>
@@ -737,9 +731,9 @@
     <sortCondition descending="1" ref="E1:E48"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A065B3CD-CF08-4F83-8191-733DF20708B1}" name="expedi"/>
     <tableColumn id="5" xr3:uid="{99782591-F0A2-430F-89AC-181A6BB4790A}" name="En Uso"/>
   </tableColumns>
@@ -1047,7 +1041,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,12 +1068,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -1087,17 +1081,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -1164,7 +1158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>120</v>
       </c>
@@ -1178,7 +1172,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1186,7 +1180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>57</v>
       </c>
@@ -1194,7 +1188,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1208,7 +1202,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1222,7 +1216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -1233,12 +1227,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1249,7 +1243,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1275,7 +1269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1286,7 +1280,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1294,17 +1288,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1354,7 +1348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1385,7 +1379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -1419,12 +1413,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -1441,7 +1435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -1480,12 +1474,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -1493,7 +1487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>62</v>
       </c>
@@ -1501,7 +1495,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1529,7 +1523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -1565,7 +1559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +1573,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -1587,7 +1581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
@@ -1598,7 +1592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -1609,7 +1603,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -1620,7 +1614,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1642,7 +1636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -1676,7 +1670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -1684,7 +1678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1692,7 +1686,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
@@ -1734,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1742,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1756,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -1773,7 +1767,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
@@ -1784,7 +1778,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -1795,27 +1789,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
@@ -1832,7 +1826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>9</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>64</v>
       </c>
@@ -1851,12 +1845,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +1864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
@@ -1878,7 +1872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
@@ -1889,7 +1883,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -1900,7 +1894,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>60</v>
       </c>
@@ -1908,17 +1902,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>63</v>
       </c>

--- a/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
+++ b/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estad\Apps\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746A71D3-C49D-4C37-8DAA-B007888D8BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AC35A7-7D6C-4BC3-BDC1-A7D3C6D5A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
   </bookViews>
@@ -36,8 +36,66 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Marco Ruiz</author>
+  </authors>
+  <commentList>
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{1043193B-EE83-4DE8-9E92-1083F929655A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Ruiz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fecha que se confirma que se envio la orden</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{F6DECEA8-2F34-4266-A3BC-C5C2FFBD87DB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Marco Ruiz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Forma de enviar OC. Correo, Telefono etc</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="201">
   <si>
     <t>ref_ext</t>
   </si>
@@ -589,13 +647,64 @@
   </si>
   <si>
     <t>date_closing</t>
+  </si>
+  <si>
+    <t>ref_supplier</t>
+  </si>
+  <si>
+    <t>date_approve</t>
+  </si>
+  <si>
+    <t>date_approve2</t>
+  </si>
+  <si>
+    <t>fk_user_approve</t>
+  </si>
+  <si>
+    <t>fk_user_approve2</t>
+  </si>
+  <si>
+    <t>fk_input_method</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>fk_reception</t>
+  </si>
+  <si>
+    <t>fk_user</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>eatby</t>
+  </si>
+  <si>
+    <t>sellby</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>cost_price</t>
+  </si>
+  <si>
+    <t>Recepcion</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,8 +719,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +758,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -649,11 +777,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -704,38 +834,37 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}" name="Tabla2" displayName="Tabla2" ref="A1:E80" totalsRowShown="0">
-  <autoFilter ref="A1:E80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}" name="Tabla2" displayName="Tabla2" ref="A1:G80" totalsRowShown="0">
+  <autoFilter ref="A1:G80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DDCE4669-1A00-483B-B502-7071605F996F}" name="Cotizacion"/>
     <tableColumn id="2" xr3:uid="{874C8982-D100-4C2B-8A5A-43371F79261A}" name="Pedido"/>
     <tableColumn id="4" xr3:uid="{9A5350D2-1C39-4705-B4A0-D6292C3CD90D}" name="Entrega"/>
     <tableColumn id="3" xr3:uid="{384C2B9F-1D0B-4269-B46F-F06491C50696}" name="Factura"/>
     <tableColumn id="5" xr3:uid="{B9EC15FB-99AE-4601-AEE5-9B796C4196FF}" name="En uso"/>
+    <tableColumn id="7" xr3:uid="{CA44DFC1-4920-4874-B661-556161B22F3A}" name="Proveedor"/>
+    <tableColumn id="6" xr3:uid="{8DBF28CF-EA81-4B6C-BC67-5C4EF59AD68D}" name="ok"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:E48" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:E48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
-    <sortCondition descending="1" ref="E1:E48"/>
-  </sortState>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{A065B3CD-CF08-4F83-8191-733DF20708B1}" name="expedi"/>
     <tableColumn id="5" xr3:uid="{99782591-F0A2-430F-89AC-181A6BB4790A}" name="En Uso"/>
+    <tableColumn id="6" xr3:uid="{CC3058DC-25A7-4F5B-AB9D-51BC371A8039}" name="Proveedor"/>
+    <tableColumn id="7" xr3:uid="{17556125-3ED0-4279-A54C-0DB2C5A663DF}" name="Recepcion"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1037,11 +1166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8BF7A-7C63-4BE4-8F4D-C278672D2ADF}">
-  <dimension ref="A1:E80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8BF7A-7C63-4BE4-8F4D-C278672D2ADF}">
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,9 +1178,11 @@
     <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1067,31 +1198,58 @@
       <c r="E1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1104,8 +1262,14 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -1121,8 +1285,17 @@
       <c r="E7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1138,8 +1311,17 @@
       <c r="E8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -1149,16 +1331,28 @@
       <c r="E9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>122</v>
       </c>
       <c r="D10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>120</v>
       </c>
@@ -1171,24 +1365,36 @@
       <c r="D11" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>57</v>
       </c>
       <c r="D13" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -1201,8 +1407,14 @@
       <c r="D14" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1215,8 +1427,14 @@
       <c r="D15" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>121</v>
       </c>
@@ -1226,13 +1444,19 @@
       <c r="E16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -1242,8 +1466,14 @@
       <c r="D18" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1253,8 +1483,11 @@
       <c r="E19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1268,8 +1501,14 @@
       <c r="E20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1280,7 +1519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1288,17 +1527,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1311,8 +1550,11 @@
       <c r="D25" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>34</v>
       </c>
@@ -1322,8 +1564,11 @@
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
@@ -1336,8 +1581,11 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -1347,8 +1595,11 @@
       <c r="D28" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
@@ -1364,8 +1615,11 @@
       <c r="E29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1379,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -1395,8 +1649,14 @@
       <c r="E31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
@@ -1412,13 +1672,19 @@
       <c r="E32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -1434,8 +1700,14 @@
       <c r="E34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>53</v>
       </c>
@@ -1446,7 +1718,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -1459,8 +1731,11 @@
       <c r="D36" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
@@ -1473,21 +1748,30 @@
       <c r="D37" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>62</v>
       </c>
@@ -1495,7 +1779,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
@@ -1508,8 +1792,11 @@
       <c r="D41" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>23</v>
       </c>
@@ -1522,8 +1809,11 @@
       <c r="D42" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
@@ -1533,8 +1823,11 @@
       <c r="D43" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>17</v>
       </c>
@@ -1544,8 +1837,11 @@
       <c r="D44" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>37</v>
       </c>
@@ -1558,8 +1854,11 @@
       <c r="D45" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>22</v>
       </c>
@@ -1572,8 +1871,11 @@
       <c r="D46" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>24</v>
       </c>
@@ -1581,7 +1883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
@@ -1591,8 +1893,11 @@
       <c r="D48" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>43</v>
       </c>
@@ -1602,8 +1907,11 @@
       <c r="D49" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>45</v>
       </c>
@@ -1613,8 +1921,11 @@
       <c r="D50" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>44</v>
       </c>
@@ -1624,8 +1935,11 @@
       <c r="D51" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1635,8 +1949,11 @@
       <c r="D52" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -1652,8 +1969,14 @@
       <c r="E53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -1669,8 +1992,14 @@
       <c r="E54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -1678,7 +2007,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -1686,7 +2015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>123</v>
       </c>
@@ -1694,7 +2023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
@@ -1710,8 +2039,14 @@
       <c r="E58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
@@ -1727,8 +2062,11 @@
       <c r="E59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>0</v>
       </c>
@@ -1741,8 +2079,11 @@
       <c r="D60" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
@@ -1756,7 +2097,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>14</v>
       </c>
@@ -1766,8 +2107,11 @@
       <c r="D62" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +2122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>12</v>
       </c>
@@ -1788,28 +2132,31 @@
       <c r="D64" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
@@ -1825,8 +2172,14 @@
       <c r="E69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>9</v>
       </c>
@@ -1836,8 +2189,11 @@
       <c r="D70" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>64</v>
       </c>
@@ -1845,12 +2201,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -1863,16 +2219,22 @@
       <c r="D73" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>19</v>
       </c>
@@ -1882,8 +2244,11 @@
       <c r="D75" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>15</v>
       </c>
@@ -1893,8 +2258,11 @@
       <c r="D76" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>60</v>
       </c>
@@ -1902,17 +2270,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -1921,28 +2289,39 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A78">
     <sortCondition ref="A6:A78"/>
   </sortState>
+  <conditionalFormatting sqref="G2:G80">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D90C84-D0AB-441F-98FA-AB4E76374AAA}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -1958,8 +2337,14 @@
       <c r="E1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -1973,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -1986,8 +2371,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>156</v>
       </c>
@@ -2000,8 +2388,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
@@ -2014,8 +2405,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -2028,8 +2422,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -2042,8 +2439,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -2059,8 +2459,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
@@ -2076,8 +2479,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2090,8 +2496,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2107,8 +2516,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -2121,8 +2533,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -2135,8 +2550,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
@@ -2149,8 +2567,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -2160,8 +2581,11 @@
       <c r="C15" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -2171,9 +2595,12 @@
       <c r="C16" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B17" t="s">
@@ -2185,18 +2612,24 @@
       <c r="D17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>179</v>
       </c>
@@ -2204,7 +2637,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2214,8 +2647,11 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
@@ -2225,8 +2661,12 @@
       <c r="C22" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
       <c r="C23" t="s">
         <v>177</v>
       </c>
@@ -2234,7 +2674,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -2245,7 +2685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
@@ -2256,17 +2696,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
       <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2276,8 +2718,11 @@
       <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -2287,8 +2732,11 @@
       <c r="C29" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
@@ -2298,8 +2746,11 @@
       <c r="C30" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -2309,8 +2760,11 @@
       <c r="C31" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
@@ -2320,8 +2774,11 @@
       <c r="C32" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>165</v>
       </c>
@@ -2331,8 +2788,11 @@
       <c r="C33" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2342,8 +2802,11 @@
       <c r="C34" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -2353,8 +2816,11 @@
       <c r="C35" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -2364,8 +2830,11 @@
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2375,8 +2844,11 @@
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2386,8 +2858,11 @@
       <c r="C38" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -2398,15 +2873,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>0</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2416,13 +2894,16 @@
       <c r="C41" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2432,8 +2913,11 @@
       <c r="C43" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
@@ -2443,8 +2927,11 @@
       <c r="C44" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -2454,8 +2941,11 @@
       <c r="C45" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2465,8 +2955,11 @@
       <c r="C46" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -2476,8 +2969,11 @@
       <c r="C47" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>
@@ -2485,6 +2981,9 @@
         <v>173</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s">
         <v>173</v>
       </c>
     </row>

--- a/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
+++ b/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estad\Apps\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muble\Documents\GitHub\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AC35A7-7D6C-4BC3-BDC1-A7D3C6D5A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190AB81-C343-4EB7-ABF1-CD0A0339CF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Acuerdo" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Marco Ruiz</author>
+    <author>Mublex Colombia</author>
   </authors>
   <commentList>
-    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{1043193B-EE83-4DE8-9E92-1083F929655A}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{1043193B-EE83-4DE8-9E92-1083F929655A}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{F6DECEA8-2F34-4266-A3BC-C5C2FFBD87DB}">
+    <comment ref="F13" authorId="1" shapeId="0" xr:uid="{E7CEAC55-EDF8-429F-A977-19AE509E6B63}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Mublex Colombia: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Termino de pago</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{F6DECEA8-2F34-4266-A3BC-C5C2FFBD87DB}">
       <text>
         <r>
           <rPr>
@@ -90,12 +114,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F16" authorId="1" shapeId="0" xr:uid="{F7A473CD-0E89-444C-B240-47385400147A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mublex Colombia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Metodo de pago</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="202">
   <si>
     <t>ref_ext</t>
   </si>
@@ -698,6 +746,9 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>ate</t>
   </si>
 </sst>
 </file>
@@ -834,13 +885,23 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}" name="Tabla2" displayName="Tabla2" ref="A1:G80" totalsRowShown="0">
-  <autoFilter ref="A1:G80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}"/>
+  <autoFilter ref="A1:G80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="date_approve"/>
+        <filter val="date_approve2"/>
+        <filter val="date_commande"/>
+        <filter val="date_creation"/>
+        <filter val="date_livraison"/>
+        <filter val="date_valid"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G80">
+    <sortCondition ref="F1:F80"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DDCE4669-1A00-483B-B502-7071605F996F}" name="Cotizacion"/>
     <tableColumn id="2" xr3:uid="{874C8982-D100-4C2B-8A5A-43371F79261A}" name="Pedido"/>
@@ -856,7 +917,13 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}"/>
+  <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="1"/>
@@ -1169,20 +1236,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8BF7A-7C63-4BE4-8F4D-C278672D2ADF}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1208,7 +1275,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1216,7 +1283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -1230,46 +1297,58 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="H4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>185</v>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="H5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>186</v>
+        <v>133</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="H6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -1295,24 +1374,18 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>74</v>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1321,18 +1394,24 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1341,928 +1420,916 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>96</v>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>73</v>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>189</v>
       </c>
       <c r="H15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>59</v>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="H17" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>54</v>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B57" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D57" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31">
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32">
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34">
+      <c r="C69" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54">
-        <v>3</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E58">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E59">
-        <v>2</v>
-      </c>
-      <c r="F59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D67" t="s">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
         <v>64</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D75" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="C77" t="s">
         <v>60</v>
       </c>
@@ -2270,17 +2337,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="C78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -2310,18 +2377,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D90C84-D0AB-441F-98FA-AB4E76374AAA}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="I2:J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="19.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -2344,7 +2412,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -2358,7 +2426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -2375,7 +2443,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>156</v>
       </c>
@@ -2392,7 +2460,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
@@ -2409,7 +2477,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -2426,7 +2494,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -2443,7 +2511,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -2463,7 +2531,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
@@ -2483,7 +2551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2500,7 +2568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2520,7 +2588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -2537,7 +2605,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -2554,7 +2622,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
@@ -2571,7 +2639,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -2585,7 +2653,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -2599,7 +2667,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -2616,19 +2684,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>179</v>
@@ -2637,7 +2705,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2651,7 +2719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
@@ -2665,7 +2733,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="C23" t="s">
         <v>177</v>
@@ -2674,7 +2742,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -2685,7 +2753,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
@@ -2696,19 +2764,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2722,7 +2790,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -2736,7 +2804,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
@@ -2750,7 +2818,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -2764,7 +2832,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
@@ -2778,7 +2846,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>165</v>
       </c>
@@ -2792,7 +2860,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2806,7 +2874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -2820,7 +2888,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -2834,7 +2902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2848,7 +2916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2862,7 +2930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -2873,7 +2941,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2884,7 +2952,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2898,12 +2966,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2917,7 +2985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
@@ -2931,7 +2999,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -2945,7 +3013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2959,7 +3027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -2973,7 +3041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>

--- a/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
+++ b/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muble\Documents\GitHub\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190AB81-C343-4EB7-ABF1-CD0A0339CF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA1131-7C76-48F9-A8A8-C610A21C30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
   </bookViews>
@@ -917,13 +917,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="1"/>
@@ -2378,7 +2372,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="I2:J48"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2639,7 +2633,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -2653,7 +2647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -2667,7 +2661,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -2684,19 +2678,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>179</v>
@@ -2705,7 +2699,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2719,7 +2713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
@@ -2733,7 +2727,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="C23" t="s">
         <v>177</v>
@@ -2742,7 +2736,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -2753,7 +2747,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
@@ -2764,19 +2758,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2790,7 +2784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -2804,7 +2798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
@@ -2818,7 +2812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -2832,7 +2826,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
@@ -2846,7 +2840,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>165</v>
       </c>
@@ -2860,7 +2854,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2874,7 +2868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -2888,7 +2882,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -2902,7 +2896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2916,7 +2910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2930,7 +2924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -2941,7 +2935,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2966,12 +2960,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2985,7 +2979,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
@@ -2999,7 +2993,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -3013,7 +3007,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3027,7 +3021,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -3041,7 +3035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>

--- a/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
+++ b/src/areas/acuerdos/models/helper/Tablas Acuerdos Dolibarr.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muble\Documents\GitHub\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estad\Apps\SimpleOk-ERP\src\areas\acuerdos\models\helper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFA1131-7C76-48F9-A8A8-C610A21C30E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26DD6CF-BB7E-4157-8C15-AE08E867CFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{F5AD1649-4895-4FE3-A631-0B5EFBCC5E5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Acuerdo" sheetId="1" r:id="rId1"/>
-    <sheet name="Lineas" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Lineas" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="231">
   <si>
     <t>ref_ext</t>
   </si>
@@ -749,6 +750,93 @@
   </si>
   <si>
     <t>ate</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>tercero</t>
+  </si>
+  <si>
+    <t>refCliente</t>
+  </si>
+  <si>
+    <t>comercial</t>
+  </si>
+  <si>
+    <t>contactoSmart</t>
+  </si>
+  <si>
+    <t>metodoEntregaLabel</t>
+  </si>
+  <si>
+    <t>condicionPagoLabel</t>
+  </si>
+  <si>
+    <t>formaPagoLabel</t>
+  </si>
+  <si>
+    <t>facturado</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>municipioTercero</t>
+  </si>
+  <si>
+    <t>origenContactoLabel</t>
+  </si>
+  <si>
+    <t>creador</t>
+  </si>
+  <si>
+    <t>fechaCreacionCorta</t>
+  </si>
+  <si>
+    <t>fechaValidacionCorta</t>
+  </si>
+  <si>
+    <t>subTotalLimpio</t>
+  </si>
+  <si>
+    <t>totalConDescu</t>
+  </si>
+  <si>
+    <t>ivaValor</t>
+  </si>
+  <si>
+    <t>totalConIva</t>
+  </si>
+  <si>
+    <t>pedido</t>
+  </si>
+  <si>
+    <t>entrega</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
+  <si>
+    <t>cotizacion</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Columna</t>
+  </si>
+  <si>
+    <t>cotizacion-pro</t>
+  </si>
+  <si>
+    <t>pedido-pro</t>
+  </si>
+  <si>
+    <t>entrega-pro</t>
+  </si>
+  <si>
+    <t>factura-pro</t>
   </si>
 </sst>
 </file>
@@ -784,7 +872,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +903,24 @@
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -828,18 +934,137 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -887,21 +1112,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}" name="Tabla2" displayName="Tabla2" ref="A1:G80" totalsRowShown="0">
-  <autoFilter ref="A1:G80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="date_approve"/>
-        <filter val="date_approve2"/>
-        <filter val="date_commande"/>
-        <filter val="date_creation"/>
-        <filter val="date_livraison"/>
-        <filter val="date_valid"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G80">
-    <sortCondition ref="F1:F80"/>
-  </sortState>
+  <autoFilter ref="A1:G80" xr:uid="{123A7690-F989-4FB4-8011-0AF6B2587789}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DDCE4669-1A00-483B-B502-7071605F996F}" name="Cotizacion"/>
     <tableColumn id="2" xr3:uid="{874C8982-D100-4C2B-8A5A-43371F79261A}" name="Pedido"/>
@@ -916,12 +1127,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A606F47D-5A42-4024-AD77-E40928CCE601}" name="Tabla1" displayName="Tabla1" ref="A2:I22" totalsRowShown="0">
+  <autoFilter ref="A2:I22" xr:uid="{A606F47D-5A42-4024-AD77-E40928CCE601}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{615E3BC1-CB53-41AC-9601-A80A4D9431DB}" name="Columna"/>
+    <tableColumn id="2" xr3:uid="{72D4DC89-A076-41F1-8B3B-0E1804C34CAE}" name="cotizacion" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4B105C61-350B-4FE5-9A0C-4A68110FA96F}" name="pedido" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FB476911-D80D-4927-826A-9D57BD50E147}" name="entrega" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6F62BC6F-A57E-49A9-A34C-5899F158E00C}" name="factura" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{7A701F0B-8A08-494D-AC4A-F51626358474}" name="cotizacion-pro" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{41AE0F8F-4B83-40CB-8B1E-935A7D9BCC7A}" name="pedido-pro" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9655BD1E-8A5E-4667-86A6-4E17F4C11DC5}" name="entrega-pro" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{14434445-0566-41BB-98CE-1513A169BE26}" name="factura-pro" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}" name="Tabla3" displayName="Tabla3" ref="A1:G48" totalsRowShown="0" dataDxfId="11">
   <autoFilter ref="A1:G48" xr:uid="{71156CB6-A631-490C-9203-41B350CE16FB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{824E0DF6-FA79-4E52-8DC9-95FC70FC79E9}" name="propal" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7EF9825C-5689-487B-AE2C-02612F5938B7}" name="commande" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{C4C9F744-E62F-4FFE-B8AD-EC80C856F417}" name="facture" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{A065B3CD-CF08-4F83-8191-733DF20708B1}" name="expedi"/>
     <tableColumn id="5" xr3:uid="{99782591-F0A2-430F-89AC-181A6BB4790A}" name="En Uso"/>
     <tableColumn id="6" xr3:uid="{CC3058DC-25A7-4F5B-AB9D-51BC371A8039}" name="Proveedor"/>
@@ -1230,20 +1459,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8BF7A-7C63-4BE4-8F4D-C278672D2ADF}">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="6.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1269,7 +1498,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -1291,7 +1520,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>82</v>
       </c>
@@ -1302,7 +1531,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1315,14 +1544,14 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>186</v>
       </c>
       <c r="H5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>120</v>
       </c>
@@ -1342,7 +1571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>119</v>
       </c>
@@ -1358,7 +1587,7 @@
       <c r="E7">
         <v>2</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
       <c r="G7">
@@ -1368,7 +1597,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1617,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1643,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1663,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -1454,7 +1683,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -1471,7 +1700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -1495,7 +1724,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1515,7 +1744,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1532,7 +1761,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1781,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1569,7 +1798,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>50</v>
       </c>
@@ -1592,7 +1821,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1618,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -1649,18 +1878,18 @@
         <v>187</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1683,7 +1912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1717,7 +1946,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -1734,7 +1963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +1980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1765,7 +1994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>17</v>
       </c>
@@ -1779,7 +2008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>37</v>
       </c>
@@ -1796,7 +2025,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -1813,7 +2042,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
@@ -1827,7 +2056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>43</v>
       </c>
@@ -1841,7 +2070,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>45</v>
       </c>
@@ -1855,7 +2084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
@@ -1869,7 +2098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -1883,7 +2112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>20</v>
       </c>
@@ -1906,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -1929,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -1952,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>0</v>
       </c>
@@ -1969,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
@@ -1989,7 +2218,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>14</v>
       </c>
@@ -2003,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -2017,7 +2246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>46</v>
       </c>
@@ -2040,7 +2269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>9</v>
       </c>
@@ -2054,7 +2283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>18</v>
       </c>
@@ -2082,7 +2311,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>19</v>
       </c>
@@ -2096,7 +2325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -2110,12 +2339,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>122</v>
       </c>
@@ -2123,7 +2352,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>57</v>
       </c>
@@ -2139,7 +2368,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>121</v>
       </c>
@@ -2150,12 +2379,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>33</v>
       </c>
@@ -2166,7 +2395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2177,7 +2406,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>35</v>
       </c>
@@ -2185,17 +2414,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>31</v>
       </c>
@@ -2209,12 +2438,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>53</v>
       </c>
@@ -2225,7 +2454,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>62</v>
       </c>
@@ -2233,7 +2462,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>24</v>
       </c>
@@ -2241,7 +2470,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -2249,7 +2478,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -2257,7 +2486,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -2265,7 +2494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -2279,7 +2508,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>13</v>
       </c>
@@ -2290,27 +2519,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>64</v>
       </c>
@@ -2318,12 +2547,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>60</v>
       </c>
@@ -2331,17 +2560,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>63</v>
       </c>
@@ -2368,22 +2597,676 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7998A18F-9926-4416-A879-7FC89A5495D5}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:I22">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37D90C84-D0AB-441F-98FA-AB4E76374AAA}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -2406,7 +3289,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>150</v>
       </c>
@@ -2420,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>153</v>
       </c>
@@ -2437,7 +3320,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>156</v>
       </c>
@@ -2454,7 +3337,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>159</v>
       </c>
@@ -2471,7 +3354,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -2488,7 +3371,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -2505,7 +3388,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>145</v>
       </c>
@@ -2525,7 +3408,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>146</v>
       </c>
@@ -2545,7 +3428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -2562,7 +3445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -2582,7 +3465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>168</v>
       </c>
@@ -2599,7 +3482,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>169</v>
       </c>
@@ -2616,7 +3499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>172</v>
       </c>
@@ -2633,7 +3516,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>151</v>
       </c>
@@ -2647,7 +3530,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>152</v>
       </c>
@@ -2661,7 +3544,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>154</v>
       </c>
@@ -2678,19 +3561,19 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="C18" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="C19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>179</v>
@@ -2699,7 +3582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2713,7 +3596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>155</v>
       </c>
@@ -2727,7 +3610,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="C23" t="s">
         <v>177</v>
@@ -2736,7 +3619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>157</v>
       </c>
@@ -2747,7 +3630,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>158</v>
       </c>
@@ -2758,19 +3641,19 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="C27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>38</v>
       </c>
@@ -2784,7 +3667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
@@ -2798,7 +3681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>162</v>
       </c>
@@ -2812,7 +3695,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>163</v>
       </c>
@@ -2826,7 +3709,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>164</v>
       </c>
@@ -2840,7 +3723,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>165</v>
       </c>
@@ -2854,7 +3737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -2868,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>166</v>
       </c>
@@ -2882,7 +3765,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>43</v>
       </c>
@@ -2896,7 +3779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -2910,7 +3793,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -2924,7 +3807,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>123</v>
       </c>
@@ -2935,7 +3818,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -2946,7 +3829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
@@ -2960,12 +3843,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>18</v>
       </c>
@@ -2979,7 +3862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>170</v>
       </c>
@@ -2993,7 +3876,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>171</v>
       </c>
@@ -3007,7 +3890,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3904,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -3035,7 +3918,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>
